--- a/ตารางเรียน 27-28.xlsx
+++ b/ตารางเรียน 27-28.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruttakorn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruttakorn\Documents\git-sunday\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
   <si>
     <t xml:space="preserve">12.00-13.00 น. รับประทานอาหารกลางวัน </t>
   </si>
@@ -283,7 +283,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,26 +462,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -490,11 +472,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -504,90 +588,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,7 +906,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D1" sqref="D1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -925,7 +925,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -934,68 +934,86 @@
       <c r="C1" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:11" ht="69" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="69" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="36" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1008,146 +1026,146 @@
       <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="69" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
     </row>
     <row r="13" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="44" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="37" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:11" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="38" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1196,365 +1214,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="26" t="s">
         <v>72</v>
       </c>
       <c r="L2" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="12"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="31" t="s">
+      <c r="E3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="10"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="26"/>
       <c r="L3" s="34"/>
-      <c r="M3" s="10"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13" ht="69" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="42" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="10"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="26"/>
       <c r="L4" s="34"/>
-      <c r="M4" s="10"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="42" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="17" t="s">
+      <c r="E5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="10"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="34"/>
-      <c r="M5" s="10"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="20" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="42" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="10"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="26"/>
       <c r="L6" s="34"/>
-      <c r="M6" s="10"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="E7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="10"/>
+      <c r="E7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="26"/>
       <c r="L7" s="35"/>
-      <c r="M7" s="10"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="14" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="14" t="s">
+      <c r="K10" s="12"/>
+      <c r="L10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="48" t="s">
+      <c r="J11" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="39" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="10"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="39" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="10"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="26"/>
     </row>
     <row r="14" spans="1:13" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="25" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="40" t="s">
+      <c r="E14" s="26"/>
+      <c r="F14" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="25" t="s">
+      <c r="G14" s="26"/>
+      <c r="H14" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11" t="s">
+      <c r="I14" s="26"/>
+      <c r="J14" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11" t="s">
+      <c r="K14" s="26"/>
+      <c r="L14" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="10"/>
+      <c r="M14" s="26"/>
     </row>
     <row r="15" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="10"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="26"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="10"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="10"/>
+      <c r="K16" s="26"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="10"/>
+      <c r="M16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="I11:I16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="K2:K7"/>
     <mergeCell ref="L11:L13"/>
     <mergeCell ref="L14:L15"/>
@@ -1571,19 +1602,6 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="I11:I16"/>
-    <mergeCell ref="K11:K16"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C2:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ตารางเรียน 27-28.xlsx
+++ b/ตารางเรียน 27-28.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
   <si>
     <t xml:space="preserve">12.00-13.00 น. รับประทานอาหารกลางวัน </t>
   </si>
@@ -524,6 +524,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -532,6 +541,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -562,32 +583,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,7 +906,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -937,6 +937,9 @@
       <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:11" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
@@ -949,6 +952,9 @@
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="69" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
@@ -961,6 +967,9 @@
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
@@ -973,6 +982,9 @@
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
@@ -985,6 +997,9 @@
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
@@ -995,6 +1010,9 @@
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1256,10 +1274,10 @@
     </row>
     <row r="2" spans="1:13" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="33" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="22" t="s">
@@ -1280,13 +1298,13 @@
       <c r="I2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="50" t="s">
         <v>73</v>
       </c>
       <c r="K2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="40" t="s">
         <v>74</v>
       </c>
       <c r="M2" s="26" t="s">
@@ -1295,26 +1313,26 @@
     </row>
     <row r="3" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="26"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="45"/>
+      <c r="J3" s="50"/>
       <c r="K3" s="26"/>
-      <c r="L3" s="34"/>
+      <c r="L3" s="41"/>
       <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="22" t="s">
         <v>49</v>
       </c>
@@ -1323,19 +1341,19 @@
         <v>57</v>
       </c>
       <c r="G4" s="26"/>
-      <c r="H4" s="36"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="45"/>
+      <c r="J4" s="50"/>
       <c r="K4" s="26"/>
-      <c r="L4" s="34"/>
+      <c r="L4" s="41"/>
       <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="22" t="s">
         <v>51</v>
       </c>
@@ -1345,15 +1363,15 @@
         <v>67</v>
       </c>
       <c r="I5" s="26"/>
-      <c r="J5" s="45"/>
+      <c r="J5" s="50"/>
       <c r="K5" s="26"/>
-      <c r="L5" s="34"/>
+      <c r="L5" s="41"/>
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="13" t="s">
         <v>52</v>
       </c>
@@ -1364,9 +1382,9 @@
       <c r="G6" s="26"/>
       <c r="H6" s="11"/>
       <c r="I6" s="26"/>
-      <c r="J6" s="45"/>
+      <c r="J6" s="50"/>
       <c r="K6" s="26"/>
-      <c r="L6" s="34"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1379,7 +1397,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="11"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="35"/>
+      <c r="L7" s="42"/>
       <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1443,7 +1461,7 @@
       <c r="C11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="36" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -1455,19 +1473,19 @@
       <c r="G11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="44" t="s">
         <v>68</v>
       </c>
       <c r="I11" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="47" t="s">
         <v>70</v>
       </c>
       <c r="K11" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="33" t="s">
         <v>76</v>
       </c>
       <c r="M11" s="26" t="s">
@@ -1480,17 +1498,17 @@
         <v>43</v>
       </c>
       <c r="C12" s="26"/>
-      <c r="D12" s="46"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="26"/>
       <c r="F12" s="21" t="s">
         <v>60</v>
       </c>
       <c r="G12" s="26"/>
-      <c r="H12" s="38"/>
+      <c r="H12" s="45"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="41"/>
+      <c r="J12" s="48"/>
       <c r="K12" s="26"/>
-      <c r="L12" s="31"/>
+      <c r="L12" s="34"/>
       <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
@@ -1499,17 +1517,17 @@
         <v>44</v>
       </c>
       <c r="C13" s="26"/>
-      <c r="D13" s="44"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="26"/>
       <c r="F13" s="21" t="s">
         <v>61</v>
       </c>
       <c r="G13" s="26"/>
-      <c r="H13" s="39"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="42"/>
+      <c r="J13" s="49"/>
       <c r="K13" s="26"/>
-      <c r="L13" s="32"/>
+      <c r="L13" s="35"/>
       <c r="M13" s="26"/>
     </row>
     <row r="14" spans="1:13" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1518,23 +1536,23 @@
         <v>45</v>
       </c>
       <c r="C14" s="26"/>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="36" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="26"/>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="38" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="26"/>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="36" t="s">
         <v>69</v>
       </c>
       <c r="I14" s="26"/>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="33" t="s">
         <v>71</v>
       </c>
       <c r="K14" s="26"/>
-      <c r="L14" s="30" t="s">
+      <c r="L14" s="33" t="s">
         <v>77</v>
       </c>
       <c r="M14" s="26"/>
@@ -1545,15 +1563,15 @@
         <v>46</v>
       </c>
       <c r="C15" s="26"/>
-      <c r="D15" s="44"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="48"/>
+      <c r="F15" s="39"/>
       <c r="G15" s="26"/>
-      <c r="H15" s="44"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="32"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="26"/>
-      <c r="L15" s="32"/>
+      <c r="L15" s="35"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1573,23 +1591,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="I11:I16"/>
-    <mergeCell ref="K11:K16"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="K2:K7"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L2:L7"/>
     <mergeCell ref="M2:M7"/>
     <mergeCell ref="M11:M16"/>
     <mergeCell ref="B8:M8"/>
@@ -1602,6 +1603,23 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="D11:D13"/>
+    <mergeCell ref="I11:I16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="K2:K7"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L2:L7"/>
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="E2:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ตารางเรียน 27-28.xlsx
+++ b/ตารางเรียน 27-28.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
   <si>
     <t xml:space="preserve">12.00-13.00 น. รับประทานอาหารกลางวัน </t>
   </si>
@@ -524,6 +524,63 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -531,63 +588,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,7 +906,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D1" sqref="D1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -937,9 +937,6 @@
       <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
@@ -952,9 +949,6 @@
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="3" spans="1:11" ht="69" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
@@ -967,9 +961,6 @@
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
@@ -982,9 +973,6 @@
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
@@ -997,9 +985,6 @@
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="6" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
@@ -1010,9 +995,6 @@
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1274,10 +1256,10 @@
     </row>
     <row r="2" spans="1:13" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="22" t="s">
@@ -1298,13 +1280,13 @@
       <c r="I2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="45" t="s">
         <v>73</v>
       </c>
       <c r="K2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="33" t="s">
         <v>74</v>
       </c>
       <c r="M2" s="26" t="s">
@@ -1313,26 +1295,26 @@
     </row>
     <row r="3" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="26"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="36" t="s">
         <v>66</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="50"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="26"/>
-      <c r="L3" s="41"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="22" t="s">
         <v>49</v>
       </c>
@@ -1341,19 +1323,19 @@
         <v>57</v>
       </c>
       <c r="G4" s="26"/>
-      <c r="H4" s="43"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="26"/>
-      <c r="L4" s="41"/>
+      <c r="L4" s="34"/>
       <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="22" t="s">
         <v>51</v>
       </c>
@@ -1363,15 +1345,15 @@
         <v>67</v>
       </c>
       <c r="I5" s="26"/>
-      <c r="J5" s="50"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="26"/>
-      <c r="L5" s="41"/>
+      <c r="L5" s="34"/>
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="13" t="s">
         <v>52</v>
       </c>
@@ -1382,9 +1364,9 @@
       <c r="G6" s="26"/>
       <c r="H6" s="11"/>
       <c r="I6" s="26"/>
-      <c r="J6" s="50"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="26"/>
-      <c r="L6" s="41"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1397,7 +1379,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="11"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="42"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1461,7 +1443,7 @@
       <c r="C11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="43" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -1473,19 +1455,19 @@
       <c r="G11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="37" t="s">
         <v>68</v>
       </c>
       <c r="I11" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="47" t="s">
+      <c r="J11" s="40" t="s">
         <v>70</v>
       </c>
       <c r="K11" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="33" t="s">
+      <c r="L11" s="30" t="s">
         <v>76</v>
       </c>
       <c r="M11" s="26" t="s">
@@ -1498,17 +1480,17 @@
         <v>43</v>
       </c>
       <c r="C12" s="26"/>
-      <c r="D12" s="51"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="26"/>
       <c r="F12" s="21" t="s">
         <v>60</v>
       </c>
       <c r="G12" s="26"/>
-      <c r="H12" s="45"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="48"/>
+      <c r="J12" s="41"/>
       <c r="K12" s="26"/>
-      <c r="L12" s="34"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
@@ -1517,17 +1499,17 @@
         <v>44</v>
       </c>
       <c r="C13" s="26"/>
-      <c r="D13" s="37"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="26"/>
       <c r="F13" s="21" t="s">
         <v>61</v>
       </c>
       <c r="G13" s="26"/>
-      <c r="H13" s="46"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="49"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="26"/>
-      <c r="L13" s="35"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="26"/>
     </row>
     <row r="14" spans="1:13" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1536,23 +1518,23 @@
         <v>45</v>
       </c>
       <c r="C14" s="26"/>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="43" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="26"/>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="47" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="26"/>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="43" t="s">
         <v>69</v>
       </c>
       <c r="I14" s="26"/>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="30" t="s">
         <v>71</v>
       </c>
       <c r="K14" s="26"/>
-      <c r="L14" s="33" t="s">
+      <c r="L14" s="30" t="s">
         <v>77</v>
       </c>
       <c r="M14" s="26"/>
@@ -1563,15 +1545,15 @@
         <v>46</v>
       </c>
       <c r="C15" s="26"/>
-      <c r="D15" s="37"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="39"/>
+      <c r="F15" s="48"/>
       <c r="G15" s="26"/>
-      <c r="H15" s="37"/>
+      <c r="H15" s="44"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="35"/>
+      <c r="J15" s="32"/>
       <c r="K15" s="26"/>
-      <c r="L15" s="35"/>
+      <c r="L15" s="32"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1591,6 +1573,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="I11:I16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="K2:K7"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L2:L7"/>
     <mergeCell ref="M2:M7"/>
     <mergeCell ref="M11:M16"/>
     <mergeCell ref="B8:M8"/>
@@ -1603,23 +1602,6 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="D11:D13"/>
-    <mergeCell ref="I11:I16"/>
-    <mergeCell ref="K11:K16"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="K2:K7"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L2:L7"/>
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="E2:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
